--- a/data/botw_all3.xlsx
+++ b/data/botw_all3.xlsx
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>42160.56628472223</v>
+        <v>41306</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
